--- a/furnace_V1/BOM_glassFurnaceBuild.xlsx
+++ b/furnace_V1/BOM_glassFurnaceBuild.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminewing/Documents/personal/B-T-EWING_Mobile_glass_studio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\glass\B_T_EWING-Glass-studio\Furnace_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D36BF1C-9A7A-F649-8B75-DC665EA5AE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244A818-EA07-47A3-A4C6-08B6BD46F93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="3700" windowWidth="20480" windowHeight="25100" xr2:uid="{D05F895F-8E8C-8248-90B1-8E0081E9A474}"/>
+    <workbookView xWindow="-16020" yWindow="135" windowWidth="15540" windowHeight="10995" xr2:uid="{D05F895F-8E8C-8248-90B1-8E0081E9A474}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM and Build" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Thermal Conductivity" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>Glass Furnace BOM</t>
   </si>
@@ -219,6 +218,18 @@
   </si>
   <si>
     <t>https://losangeles.craigslist.org/sgv/art/d/monterey-park-cress-kiln/7785144847.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Themal Conductivity </t>
+  </si>
+  <si>
+    <t>Temp (c)</t>
+  </si>
+  <si>
+    <t>Temp (f)</t>
+  </si>
+  <si>
+    <t>BNZ-20</t>
   </si>
 </sst>
 </file>
@@ -282,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +310,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -323,6 +340,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -331,7 +428,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -343,6 +440,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -714,21 +829,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C00DE8-B389-BB4D-B656-42F046C1FB7D}">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -739,7 +855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -750,7 +866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -758,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -770,7 +886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -781,7 +897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -793,7 +909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -804,7 +920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -816,7 +932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -826,7 +942,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -852,7 +968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5692</v>
       </c>
@@ -876,7 +992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -901,7 +1017,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -925,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -946,7 +1062,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -970,7 +1086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -991,7 +1107,7 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1012,7 +1128,7 @@
         <v>70.62</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1033,14 +1149,14 @@
         <v>202.8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E22" s="1"/>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1050,14 +1166,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E24" s="1"/>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1078,21 +1194,21 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
@@ -1112,16 +1228,16 @@
         <v>411.09999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1130,7 +1246,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1155,7 +1271,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1180,31 +1296,31 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F35" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F36" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F37" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F38" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>54</v>
       </c>
@@ -1212,7 +1328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>55</v>
       </c>
@@ -1220,7 +1336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>57</v>
       </c>
@@ -1228,7 +1344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>59</v>
       </c>
@@ -1251,12 +1367,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5721B70-E401-7E4A-B023-77DBAD5217DA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="20">
+        <v>500</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1500</v>
+      </c>
+      <c r="E2" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="20">
+        <v>260</v>
+      </c>
+      <c r="C3" s="20">
+        <v>538</v>
+      </c>
+      <c r="D3" s="20">
+        <v>816</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.19</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>